--- a/AppTracker.xlsx
+++ b/AppTracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00 Project Repository\GuestRegistrationForm\GuestRegistrationForm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guest123\GuestRegistrationForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C728226-6AA6-4708-B831-F44C962E0E26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A41E89-A37F-4633-A2E1-69DC6E93A098}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -493,195 +493,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3A671"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3A671"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF3A671"/>
         </patternFill>
       </fill>
     </dxf>
@@ -969,23 +780,23 @@
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="6.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="6.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="68" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="8" width="15.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="4" max="4" width="9.109375" style="3"/>
+    <col min="5" max="8" width="15.88671875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="21.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="25.33203125" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>1</v>
       </c>
@@ -1035,7 +846,7 @@
       <c r="I3" s="5"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <v>2</v>
       </c>
@@ -1046,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>27</v>
@@ -1056,7 +867,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>3</v>
       </c>
@@ -1067,7 +878,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>27</v>
@@ -1077,7 +888,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="12">
         <v>4</v>
       </c>
@@ -1098,7 +909,7 @@
       <c r="I6" s="5"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <v>5</v>
       </c>
@@ -1119,7 +930,7 @@
       <c r="I7" s="5"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <v>6</v>
       </c>
@@ -1140,7 +951,7 @@
       <c r="I8" s="5"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -1161,7 +972,7 @@
       <c r="I9" s="5"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>8</v>
       </c>
@@ -1182,7 +993,7 @@
       <c r="I10" s="5"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <v>9</v>
       </c>
@@ -1203,7 +1014,7 @@
       <c r="I11" s="5"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>10</v>
       </c>
@@ -1214,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>27</v>
@@ -1224,7 +1035,7 @@
       <c r="I12" s="5"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <v>11</v>
       </c>
@@ -1245,7 +1056,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <v>12</v>
       </c>
@@ -1264,7 +1075,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <v>13</v>
       </c>
@@ -1285,7 +1096,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <v>14</v>
       </c>
@@ -1306,7 +1117,7 @@
       <c r="I16" s="5"/>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <v>15</v>
       </c>
@@ -1327,7 +1138,7 @@
       <c r="I17" s="5"/>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>16</v>
       </c>
@@ -1338,7 +1149,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>27</v>
@@ -1348,7 +1159,7 @@
       <c r="I18" s="5"/>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="14">
         <v>17</v>
       </c>
@@ -1369,7 +1180,7 @@
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
     </row>
-    <row r="20" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="13">
         <v>18</v>
       </c>
@@ -1452,14 +1263,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1467,7 +1278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1475,7 +1286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1483,17 +1294,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>14</v>
       </c>

--- a/AppTracker.xlsx
+++ b/AppTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guest123\GuestRegistrationForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A41E89-A37F-4633-A2E1-69DC6E93A098}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009F10B1-F786-44EE-9654-D4D1C044CC98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -780,7 +780,7 @@
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +878,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>27</v>
@@ -1046,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>27</v>
@@ -1107,7 +1107,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>27</v>

--- a/AppTracker.xlsx
+++ b/AppTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guest123\GuestRegistrationForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009F10B1-F786-44EE-9654-D4D1C044CC98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53286525-49B4-41BE-B8AF-CC066F18E32A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>Message Box alteration: Add Title, Alert/Error/Info</t>
+  </si>
+  <si>
+    <t>created the combo box</t>
   </si>
 </sst>
 </file>
@@ -780,7 +783,7 @@
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>27</v>
@@ -920,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>29</v>
@@ -1046,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>27</v>
@@ -1094,7 +1097,9 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
-      <c r="J15" s="9"/>
+      <c r="J15" s="9" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="12">

--- a/AppTracker.xlsx
+++ b/AppTracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guest123\GuestRegistrationForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53286525-49B4-41BE-B8AF-CC066F18E32A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5C308A-094D-498A-AE5D-713E2BEE67DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -783,7 +783,7 @@
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>29</v>

--- a/AppTracker.xlsx
+++ b/AppTracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guest123\GuestRegistrationForm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5C308A-094D-498A-AE5D-713E2BEE67DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF99166-5372-49FB-8B01-898BBE28D7CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t>#</t>
   </si>
@@ -143,9 +143,6 @@
   </si>
   <si>
     <t>Alignment and UI Enhancement</t>
-  </si>
-  <si>
-    <t>Ongoing</t>
   </si>
   <si>
     <t>Message Box alteration: Add Title, Alert/Error/Info</t>
@@ -783,7 +780,7 @@
   <dimension ref="B1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -839,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>27</v>
@@ -860,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>27</v>
@@ -881,7 +878,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>27</v>
@@ -917,13 +914,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>29</v>
@@ -944,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>28</v>
@@ -986,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>28</v>
@@ -1007,7 +1004,7 @@
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>28</v>
@@ -1028,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>27</v>
@@ -1049,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>27</v>
@@ -1089,7 +1086,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>28</v>
@@ -1098,7 +1095,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
